--- a/document/프로젝트 일정관리(2023-07-20).xlsx
+++ b/document/프로젝트 일정관리(2023-07-20).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\BigFootPrint\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HumiDK\Documents\Workspace\BigFoot_SpringMVC\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF1A2B3-71D9-4472-98C8-A7773D51EE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06E278B-EDE5-45E2-9D86-4115AF61F6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Timeline" sheetId="1" r:id="rId1"/>
@@ -2638,7 +2638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2972,49 +2972,328 @@
     <xf numFmtId="9" fontId="36" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="29" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="36" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="36" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="33" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="14" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="14" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="15" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="15" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="15" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="15" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="15" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="16" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="16" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="16" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="67" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="67" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="67" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3025,360 +3304,72 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="58" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="67" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="67" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="67" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="15" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="16" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="36" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="36" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="15" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="15" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="15" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="15" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="16" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="16" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="33" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="14" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="14" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3711,8 +3702,8 @@
   </sheetPr>
   <dimension ref="A1:BX32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ16" sqref="AZ16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -3721,30 +3712,31 @@
     <col min="2" max="2" width="9.875" customWidth="1"/>
     <col min="3" max="3" width="1.375" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="7" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="4.875" customWidth="1"/>
+    <col min="6" max="6" width="2.875" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="76" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76" ht="21" customHeight="1">
-      <c r="A1" s="241"/>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="246"/>
-      <c r="Q1" s="247"/>
+      <c r="A1" s="147"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="153"/>
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -3807,43 +3799,43 @@
     </row>
     <row r="2" spans="1:76" ht="21" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="131"/>
-      <c r="AG2" s="131"/>
-      <c r="AH2" s="131"/>
-      <c r="AI2" s="131"/>
-      <c r="AJ2" s="131"/>
-      <c r="AK2" s="131"/>
-      <c r="AL2" s="131"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="231"/>
+      <c r="L2" s="231"/>
+      <c r="M2" s="231"/>
+      <c r="N2" s="231"/>
+      <c r="O2" s="231"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="230"/>
+      <c r="S2" s="230"/>
+      <c r="T2" s="230"/>
+      <c r="U2" s="232"/>
+      <c r="V2" s="230"/>
+      <c r="W2" s="230"/>
+      <c r="X2" s="230"/>
+      <c r="Y2" s="230"/>
+      <c r="Z2" s="230"/>
+      <c r="AA2" s="230"/>
+      <c r="AB2" s="230"/>
+      <c r="AC2" s="230"/>
+      <c r="AD2" s="230"/>
+      <c r="AE2" s="230"/>
+      <c r="AF2" s="230"/>
+      <c r="AG2" s="230"/>
+      <c r="AH2" s="230"/>
+      <c r="AI2" s="230"/>
+      <c r="AJ2" s="230"/>
+      <c r="AK2" s="230"/>
+      <c r="AL2" s="230"/>
       <c r="AM2" s="5"/>
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
@@ -3968,42 +3960,42 @@
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="223" t="s">
+      <c r="E4" s="136" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="127" t="s">
+      <c r="I4" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="221" t="s">
+      <c r="J4" s="233"/>
+      <c r="K4" s="233"/>
+      <c r="L4" s="233"/>
+      <c r="M4" s="233"/>
+      <c r="N4" s="233"/>
+      <c r="O4" s="233"/>
+      <c r="P4" s="234"/>
+      <c r="Q4" s="234"/>
+      <c r="R4" s="234"/>
+      <c r="S4" s="234"/>
+      <c r="T4" s="234"/>
+      <c r="U4" s="234"/>
+      <c r="V4" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="128"/>
-      <c r="AG4" s="128"/>
-      <c r="AH4" s="128"/>
+      <c r="W4" s="234"/>
+      <c r="X4" s="234"/>
+      <c r="Y4" s="234"/>
+      <c r="Z4" s="234"/>
+      <c r="AA4" s="234"/>
+      <c r="AB4" s="234"/>
+      <c r="AC4" s="234"/>
+      <c r="AD4" s="234"/>
+      <c r="AE4" s="234"/>
+      <c r="AF4" s="234"/>
+      <c r="AG4" s="234"/>
+      <c r="AH4" s="234"/>
       <c r="AI4" s="13"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
@@ -4054,41 +4046,41 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="222" t="s">
+      <c r="E5" s="135" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="127" t="s">
+      <c r="I5" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="129">
+      <c r="J5" s="233"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="233"/>
+      <c r="M5" s="233"/>
+      <c r="N5" s="233"/>
+      <c r="O5" s="233"/>
+      <c r="P5" s="234"/>
+      <c r="Q5" s="234"/>
+      <c r="R5" s="234"/>
+      <c r="S5" s="234"/>
+      <c r="T5" s="234"/>
+      <c r="U5" s="234"/>
+      <c r="V5" s="236">
         <v>45127</v>
       </c>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
-      <c r="AF5" s="128"/>
-      <c r="AG5" s="128"/>
+      <c r="W5" s="234"/>
+      <c r="X5" s="234"/>
+      <c r="Y5" s="234"/>
+      <c r="Z5" s="234"/>
+      <c r="AA5" s="234"/>
+      <c r="AB5" s="234"/>
+      <c r="AC5" s="234"/>
+      <c r="AD5" s="234"/>
+      <c r="AE5" s="234"/>
+      <c r="AF5" s="234"/>
+      <c r="AG5" s="234"/>
       <c r="AH5" s="16"/>
       <c r="AI5" s="13"/>
       <c r="AJ5" s="3"/>
@@ -4140,7 +4132,7 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="222" t="s">
+      <c r="E6" s="135" t="s">
         <v>47</v>
       </c>
       <c r="F6" s="14"/>
@@ -4304,78 +4296,78 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
-      <c r="I8" s="124" t="s">
+      <c r="I8" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="125"/>
-      <c r="X8" s="125"/>
-      <c r="Y8" s="125"/>
-      <c r="Z8" s="125"/>
-      <c r="AA8" s="125"/>
-      <c r="AB8" s="125"/>
-      <c r="AC8" s="125"/>
-      <c r="AD8" s="125"/>
-      <c r="AE8" s="124" t="s">
+      <c r="J8" s="173"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="173"/>
+      <c r="Q8" s="173"/>
+      <c r="R8" s="173"/>
+      <c r="S8" s="173"/>
+      <c r="T8" s="173"/>
+      <c r="U8" s="173"/>
+      <c r="V8" s="173"/>
+      <c r="W8" s="173"/>
+      <c r="X8" s="173"/>
+      <c r="Y8" s="173"/>
+      <c r="Z8" s="173"/>
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173"/>
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="173"/>
+      <c r="AE8" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="AF8" s="210"/>
-      <c r="AG8" s="210"/>
-      <c r="AH8" s="210"/>
-      <c r="AI8" s="210"/>
-      <c r="AJ8" s="210"/>
-      <c r="AK8" s="210"/>
-      <c r="AL8" s="210"/>
-      <c r="AM8" s="210"/>
-      <c r="AN8" s="210"/>
-      <c r="AO8" s="210"/>
-      <c r="AP8" s="210"/>
-      <c r="AQ8" s="210"/>
-      <c r="AR8" s="210"/>
-      <c r="AS8" s="210"/>
-      <c r="AT8" s="210"/>
-      <c r="AU8" s="210"/>
-      <c r="AV8" s="210"/>
-      <c r="AW8" s="210"/>
-      <c r="AX8" s="210"/>
-      <c r="AY8" s="210"/>
-      <c r="AZ8" s="210"/>
-      <c r="BA8" s="210"/>
-      <c r="BB8" s="210"/>
-      <c r="BC8" s="210"/>
-      <c r="BD8" s="210"/>
-      <c r="BE8" s="210"/>
-      <c r="BF8" s="210"/>
-      <c r="BG8" s="210"/>
-      <c r="BH8" s="210"/>
-      <c r="BI8" s="126"/>
-      <c r="BJ8" s="124" t="s">
+      <c r="AF8" s="173"/>
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="173"/>
+      <c r="AI8" s="173"/>
+      <c r="AJ8" s="173"/>
+      <c r="AK8" s="173"/>
+      <c r="AL8" s="173"/>
+      <c r="AM8" s="173"/>
+      <c r="AN8" s="173"/>
+      <c r="AO8" s="173"/>
+      <c r="AP8" s="173"/>
+      <c r="AQ8" s="173"/>
+      <c r="AR8" s="173"/>
+      <c r="AS8" s="173"/>
+      <c r="AT8" s="173"/>
+      <c r="AU8" s="173"/>
+      <c r="AV8" s="173"/>
+      <c r="AW8" s="173"/>
+      <c r="AX8" s="173"/>
+      <c r="AY8" s="173"/>
+      <c r="AZ8" s="173"/>
+      <c r="BA8" s="173"/>
+      <c r="BB8" s="173"/>
+      <c r="BC8" s="173"/>
+      <c r="BD8" s="173"/>
+      <c r="BE8" s="173"/>
+      <c r="BF8" s="173"/>
+      <c r="BG8" s="173"/>
+      <c r="BH8" s="173"/>
+      <c r="BI8" s="174"/>
+      <c r="BJ8" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="BK8" s="210"/>
-      <c r="BL8" s="210"/>
-      <c r="BM8" s="210"/>
-      <c r="BN8" s="210"/>
-      <c r="BO8" s="210"/>
-      <c r="BP8" s="210"/>
-      <c r="BQ8" s="210"/>
-      <c r="BR8" s="210"/>
-      <c r="BS8" s="210"/>
-      <c r="BT8" s="210"/>
-      <c r="BU8" s="210"/>
-      <c r="BV8" s="126"/>
+      <c r="BK8" s="173"/>
+      <c r="BL8" s="173"/>
+      <c r="BM8" s="173"/>
+      <c r="BN8" s="173"/>
+      <c r="BO8" s="173"/>
+      <c r="BP8" s="173"/>
+      <c r="BQ8" s="173"/>
+      <c r="BR8" s="173"/>
+      <c r="BS8" s="173"/>
+      <c r="BT8" s="173"/>
+      <c r="BU8" s="173"/>
+      <c r="BV8" s="174"/>
       <c r="BW8" s="17"/>
       <c r="BX8" s="17"/>
     </row>
@@ -4383,22 +4375,22 @@
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="116" t="s">
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="244" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="117"/>
+      <c r="H9" s="245"/>
       <c r="I9" s="25">
         <v>9</v>
       </c>
-      <c r="J9" s="207">
+      <c r="J9" s="130">
         <v>10</v>
       </c>
-      <c r="K9" s="207">
+      <c r="K9" s="130">
         <v>11</v>
       </c>
       <c r="L9" s="25">
@@ -4416,10 +4408,10 @@
       <c r="P9" s="25">
         <v>16</v>
       </c>
-      <c r="Q9" s="207">
+      <c r="Q9" s="130">
         <v>17</v>
       </c>
-      <c r="R9" s="207">
+      <c r="R9" s="130">
         <v>18</v>
       </c>
       <c r="S9" s="25">
@@ -4437,10 +4429,10 @@
       <c r="W9" s="25">
         <v>23</v>
       </c>
-      <c r="X9" s="207">
+      <c r="X9" s="130">
         <v>24</v>
       </c>
-      <c r="Y9" s="207">
+      <c r="Y9" s="130">
         <v>25</v>
       </c>
       <c r="Z9" s="25">
@@ -4458,10 +4450,10 @@
       <c r="AD9" s="25">
         <v>30</v>
       </c>
-      <c r="AE9" s="208">
+      <c r="AE9" s="131">
         <v>1</v>
       </c>
-      <c r="AF9" s="209">
+      <c r="AF9" s="132">
         <v>2</v>
       </c>
       <c r="AG9" s="26">
@@ -4479,10 +4471,10 @@
       <c r="AK9" s="26">
         <v>7</v>
       </c>
-      <c r="AL9" s="209">
+      <c r="AL9" s="132">
         <v>8</v>
       </c>
-      <c r="AM9" s="209">
+      <c r="AM9" s="132">
         <v>9</v>
       </c>
       <c r="AN9" s="26">
@@ -4500,10 +4492,10 @@
       <c r="AR9" s="26">
         <v>14</v>
       </c>
-      <c r="AS9" s="209">
+      <c r="AS9" s="132">
         <v>15</v>
       </c>
-      <c r="AT9" s="209">
+      <c r="AT9" s="132">
         <v>16</v>
       </c>
       <c r="AU9" s="26">
@@ -4521,10 +4513,10 @@
       <c r="AY9" s="26">
         <v>21</v>
       </c>
-      <c r="AZ9" s="209">
+      <c r="AZ9" s="132">
         <v>22</v>
       </c>
-      <c r="BA9" s="209">
+      <c r="BA9" s="132">
         <v>23</v>
       </c>
       <c r="BB9" s="26">
@@ -4542,13 +4534,13 @@
       <c r="BF9" s="26">
         <v>28</v>
       </c>
-      <c r="BG9" s="209">
+      <c r="BG9" s="132">
         <v>29</v>
       </c>
-      <c r="BH9" s="209">
+      <c r="BH9" s="132">
         <v>30</v>
       </c>
-      <c r="BI9" s="211">
+      <c r="BI9" s="133">
         <v>31</v>
       </c>
       <c r="BJ9" s="26">
@@ -4587,7 +4579,7 @@
       <c r="BU9" s="104">
         <v>12</v>
       </c>
-      <c r="BV9" s="212">
+      <c r="BV9" s="134">
         <v>13</v>
       </c>
       <c r="BW9" s="23"/>
@@ -4595,25 +4587,25 @@
     </row>
     <row r="10" spans="1:76" ht="21" customHeight="1">
       <c r="A10" s="27"/>
-      <c r="B10" s="143">
+      <c r="B10" s="217">
         <v>1</v>
       </c>
       <c r="C10" s="28"/>
-      <c r="D10" s="152" t="s">
+      <c r="D10" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="144" t="s">
+      <c r="E10" s="212"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="221" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="123"/>
-      <c r="I10" s="164" t="s">
+      <c r="H10" s="215"/>
+      <c r="I10" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="166"/>
+      <c r="J10" s="241"/>
+      <c r="K10" s="241"/>
+      <c r="L10" s="242"/>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
@@ -4662,10 +4654,10 @@
       <c r="BF10" s="32"/>
       <c r="BG10" s="32"/>
       <c r="BH10" s="32"/>
-      <c r="BI10" s="113" t="s">
+      <c r="BI10" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="BJ10" s="113" t="s">
+      <c r="BJ10" s="169" t="s">
         <v>5</v>
       </c>
       <c r="BK10" s="33"/>
@@ -4685,24 +4677,24 @@
     </row>
     <row r="11" spans="1:76" ht="21" customHeight="1">
       <c r="A11" s="27"/>
-      <c r="B11" s="143"/>
+      <c r="B11" s="217"/>
       <c r="C11" s="28"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="118" t="s">
+      <c r="D11" s="219"/>
+      <c r="E11" s="212"/>
+      <c r="F11" s="212"/>
+      <c r="G11" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="119"/>
+      <c r="H11" s="247"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="167" t="s">
+      <c r="J11" s="237" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="163"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="239"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
       <c r="R11" s="37"/>
@@ -4748,8 +4740,8 @@
       <c r="BF11" s="32"/>
       <c r="BG11" s="32"/>
       <c r="BH11" s="32"/>
-      <c r="BI11" s="113"/>
-      <c r="BJ11" s="113"/>
+      <c r="BI11" s="169"/>
+      <c r="BJ11" s="169"/>
       <c r="BK11" s="33"/>
       <c r="BL11" s="33"/>
       <c r="BM11" s="33"/>
@@ -4767,29 +4759,29 @@
     </row>
     <row r="12" spans="1:76" ht="21" customHeight="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="121"/>
+      <c r="B12" s="210"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="172" t="s">
+      <c r="D12" s="212"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="212"/>
+      <c r="G12" s="205" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="173"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="169" t="s">
+      <c r="H12" s="206"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="171"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="198"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="199"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
@@ -4800,108 +4792,108 @@
       <c r="AB12" s="37"/>
       <c r="AC12" s="37"/>
       <c r="AD12" s="30"/>
-      <c r="AE12" s="148"/>
-      <c r="AF12" s="148"/>
-      <c r="AG12" s="148"/>
-      <c r="AH12" s="148"/>
-      <c r="AI12" s="148"/>
-      <c r="AJ12" s="148"/>
-      <c r="AK12" s="148"/>
-      <c r="AL12" s="148"/>
-      <c r="AM12" s="148"/>
-      <c r="AN12" s="148"/>
-      <c r="AO12" s="148"/>
-      <c r="AP12" s="148"/>
-      <c r="AQ12" s="148"/>
-      <c r="AR12" s="148"/>
-      <c r="AS12" s="148"/>
-      <c r="AT12" s="148"/>
-      <c r="AU12" s="148"/>
-      <c r="AV12" s="149"/>
-      <c r="AW12" s="149"/>
-      <c r="AX12" s="149"/>
-      <c r="AY12" s="149"/>
-      <c r="AZ12" s="149"/>
-      <c r="BA12" s="149"/>
-      <c r="BB12" s="149"/>
-      <c r="BC12" s="149"/>
-      <c r="BD12" s="149"/>
-      <c r="BE12" s="149"/>
-      <c r="BF12" s="149"/>
-      <c r="BG12" s="149"/>
-      <c r="BH12" s="149"/>
-      <c r="BI12" s="114"/>
-      <c r="BJ12" s="114"/>
-      <c r="BK12" s="150"/>
-      <c r="BL12" s="150"/>
-      <c r="BM12" s="150"/>
-      <c r="BN12" s="150"/>
-      <c r="BO12" s="150"/>
-      <c r="BP12" s="150"/>
-      <c r="BQ12" s="150"/>
-      <c r="BR12" s="150"/>
-      <c r="BS12" s="150"/>
-      <c r="BT12" s="150"/>
-      <c r="BU12" s="150"/>
-      <c r="BV12" s="151"/>
+      <c r="AE12" s="116"/>
+      <c r="AF12" s="116"/>
+      <c r="AG12" s="116"/>
+      <c r="AH12" s="116"/>
+      <c r="AI12" s="116"/>
+      <c r="AJ12" s="116"/>
+      <c r="AK12" s="116"/>
+      <c r="AL12" s="116"/>
+      <c r="AM12" s="116"/>
+      <c r="AN12" s="116"/>
+      <c r="AO12" s="116"/>
+      <c r="AP12" s="116"/>
+      <c r="AQ12" s="116"/>
+      <c r="AR12" s="116"/>
+      <c r="AS12" s="116"/>
+      <c r="AT12" s="116"/>
+      <c r="AU12" s="116"/>
+      <c r="AV12" s="117"/>
+      <c r="AW12" s="117"/>
+      <c r="AX12" s="117"/>
+      <c r="AY12" s="117"/>
+      <c r="AZ12" s="117"/>
+      <c r="BA12" s="117"/>
+      <c r="BB12" s="117"/>
+      <c r="BC12" s="117"/>
+      <c r="BD12" s="117"/>
+      <c r="BE12" s="117"/>
+      <c r="BF12" s="117"/>
+      <c r="BG12" s="117"/>
+      <c r="BH12" s="117"/>
+      <c r="BI12" s="170"/>
+      <c r="BJ12" s="170"/>
+      <c r="BK12" s="118"/>
+      <c r="BL12" s="118"/>
+      <c r="BM12" s="118"/>
+      <c r="BN12" s="118"/>
+      <c r="BO12" s="118"/>
+      <c r="BP12" s="118"/>
+      <c r="BQ12" s="118"/>
+      <c r="BR12" s="118"/>
+      <c r="BS12" s="118"/>
+      <c r="BT12" s="118"/>
+      <c r="BU12" s="118"/>
+      <c r="BV12" s="119"/>
       <c r="BW12" s="38"/>
       <c r="BX12" s="38"/>
     </row>
     <row r="13" spans="1:76" ht="21" customHeight="1" thickBot="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="121"/>
+      <c r="B13" s="210"/>
       <c r="C13" s="39"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="140" t="s">
+      <c r="D13" s="220"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="174"/>
+      <c r="H13" s="208"/>
       <c r="I13" s="40"/>
       <c r="J13" s="105"/>
       <c r="K13" s="105"/>
       <c r="L13" s="105"/>
-      <c r="M13" s="169" t="s">
+      <c r="M13" s="197" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="170"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="170"/>
-      <c r="R13" s="170"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="170"/>
-      <c r="U13" s="170"/>
-      <c r="V13" s="170"/>
-      <c r="W13" s="170"/>
-      <c r="X13" s="170"/>
-      <c r="Y13" s="170"/>
-      <c r="Z13" s="170"/>
-      <c r="AA13" s="170"/>
-      <c r="AB13" s="170"/>
-      <c r="AC13" s="170"/>
-      <c r="AD13" s="170"/>
-      <c r="AE13" s="170"/>
-      <c r="AF13" s="170"/>
-      <c r="AG13" s="170"/>
-      <c r="AH13" s="170"/>
-      <c r="AI13" s="170"/>
-      <c r="AJ13" s="170"/>
-      <c r="AK13" s="170"/>
-      <c r="AL13" s="170"/>
-      <c r="AM13" s="170"/>
-      <c r="AN13" s="170"/>
-      <c r="AO13" s="170"/>
-      <c r="AP13" s="170"/>
-      <c r="AQ13" s="170"/>
-      <c r="AR13" s="170"/>
-      <c r="AS13" s="170"/>
-      <c r="AT13" s="170"/>
-      <c r="AU13" s="170"/>
-      <c r="AV13" s="170"/>
-      <c r="AW13" s="170"/>
-      <c r="AX13" s="171"/>
+      <c r="N13" s="198"/>
+      <c r="O13" s="198"/>
+      <c r="P13" s="198"/>
+      <c r="Q13" s="198"/>
+      <c r="R13" s="198"/>
+      <c r="S13" s="198"/>
+      <c r="T13" s="198"/>
+      <c r="U13" s="198"/>
+      <c r="V13" s="198"/>
+      <c r="W13" s="198"/>
+      <c r="X13" s="198"/>
+      <c r="Y13" s="198"/>
+      <c r="Z13" s="198"/>
+      <c r="AA13" s="198"/>
+      <c r="AB13" s="198"/>
+      <c r="AC13" s="198"/>
+      <c r="AD13" s="198"/>
+      <c r="AE13" s="198"/>
+      <c r="AF13" s="198"/>
+      <c r="AG13" s="198"/>
+      <c r="AH13" s="198"/>
+      <c r="AI13" s="198"/>
+      <c r="AJ13" s="198"/>
+      <c r="AK13" s="198"/>
+      <c r="AL13" s="198"/>
+      <c r="AM13" s="198"/>
+      <c r="AN13" s="198"/>
+      <c r="AO13" s="198"/>
+      <c r="AP13" s="198"/>
+      <c r="AQ13" s="198"/>
+      <c r="AR13" s="198"/>
+      <c r="AS13" s="198"/>
+      <c r="AT13" s="198"/>
+      <c r="AU13" s="198"/>
+      <c r="AV13" s="198"/>
+      <c r="AW13" s="198"/>
+      <c r="AX13" s="199"/>
       <c r="AY13" s="41"/>
       <c r="AZ13" s="41"/>
       <c r="BA13" s="41"/>
@@ -4912,8 +4904,8 @@
       <c r="BF13" s="41"/>
       <c r="BG13" s="41"/>
       <c r="BH13" s="41"/>
-      <c r="BI13" s="114"/>
-      <c r="BJ13" s="114"/>
+      <c r="BI13" s="170"/>
+      <c r="BJ13" s="170"/>
       <c r="BK13" s="42"/>
       <c r="BL13" s="42"/>
       <c r="BM13" s="42"/>
@@ -4931,19 +4923,19 @@
     </row>
     <row r="14" spans="1:76" ht="21" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="141">
+      <c r="B14" s="209">
         <v>2</v>
       </c>
       <c r="C14" s="28"/>
-      <c r="D14" s="156" t="s">
+      <c r="D14" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="139" t="s">
+      <c r="E14" s="212"/>
+      <c r="F14" s="212"/>
+      <c r="G14" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="123"/>
+      <c r="H14" s="215"/>
       <c r="I14" s="44"/>
       <c r="J14" s="106"/>
       <c r="K14" s="106"/>
@@ -4960,22 +4952,22 @@
       <c r="V14" s="46"/>
       <c r="W14" s="46"/>
       <c r="X14" s="46"/>
-      <c r="Y14" s="179" t="s">
+      <c r="Y14" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="Z14" s="175"/>
-      <c r="AA14" s="175"/>
-      <c r="AB14" s="175"/>
-      <c r="AC14" s="175"/>
-      <c r="AD14" s="175"/>
-      <c r="AE14" s="175"/>
-      <c r="AF14" s="176"/>
+      <c r="Z14" s="194"/>
+      <c r="AA14" s="194"/>
+      <c r="AB14" s="194"/>
+      <c r="AC14" s="194"/>
+      <c r="AD14" s="194"/>
+      <c r="AE14" s="194"/>
+      <c r="AF14" s="196"/>
       <c r="AG14" s="47"/>
       <c r="AH14" s="47"/>
       <c r="AI14" s="47"/>
       <c r="AJ14" s="47"/>
-      <c r="AK14" s="239"/>
-      <c r="AL14" s="240"/>
+      <c r="AK14" s="145"/>
+      <c r="AL14" s="146"/>
       <c r="AM14" s="46"/>
       <c r="AN14" s="46"/>
       <c r="AO14" s="46"/>
@@ -4998,8 +4990,8 @@
       <c r="BF14" s="47"/>
       <c r="BG14" s="47"/>
       <c r="BH14" s="47"/>
-      <c r="BI14" s="114"/>
-      <c r="BJ14" s="114"/>
+      <c r="BI14" s="170"/>
+      <c r="BJ14" s="170"/>
       <c r="BK14" s="48"/>
       <c r="BL14" s="48"/>
       <c r="BM14" s="48"/>
@@ -5017,15 +5009,15 @@
     </row>
     <row r="15" spans="1:76" ht="21" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="121"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="28"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="139" t="s">
+      <c r="D15" s="212"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="214" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="123"/>
+      <c r="H15" s="215"/>
       <c r="I15" s="51"/>
       <c r="J15" s="107"/>
       <c r="K15" s="107"/>
@@ -5048,14 +5040,14 @@
       <c r="AB15" s="53"/>
       <c r="AC15" s="53"/>
       <c r="AD15" s="54"/>
-      <c r="AE15" s="178" t="s">
+      <c r="AE15" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="AF15" s="175"/>
-      <c r="AG15" s="175"/>
-      <c r="AH15" s="175"/>
-      <c r="AI15" s="175"/>
-      <c r="AJ15" s="168"/>
+      <c r="AF15" s="194"/>
+      <c r="AG15" s="194"/>
+      <c r="AH15" s="194"/>
+      <c r="AI15" s="194"/>
+      <c r="AJ15" s="120"/>
       <c r="AK15" s="37"/>
       <c r="AL15" s="37"/>
       <c r="AM15" s="53"/>
@@ -5080,8 +5072,8 @@
       <c r="BF15" s="55"/>
       <c r="BG15" s="55"/>
       <c r="BH15" s="55"/>
-      <c r="BI15" s="114"/>
-      <c r="BJ15" s="114"/>
+      <c r="BI15" s="170"/>
+      <c r="BJ15" s="170"/>
       <c r="BK15" s="56"/>
       <c r="BL15" s="56"/>
       <c r="BM15" s="56"/>
@@ -5099,15 +5091,15 @@
     </row>
     <row r="16" spans="1:76" ht="21" customHeight="1">
       <c r="A16" s="17"/>
-      <c r="B16" s="121"/>
+      <c r="B16" s="210"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="259" t="s">
+      <c r="D16" s="212"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="260"/>
+      <c r="H16" s="166"/>
       <c r="I16" s="107"/>
       <c r="J16" s="108"/>
       <c r="K16" s="108"/>
@@ -5123,23 +5115,23 @@
       <c r="U16" s="59"/>
       <c r="V16" s="59"/>
       <c r="W16" s="59"/>
-      <c r="X16" s="177" t="s">
+      <c r="X16" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="Y16" s="254"/>
-      <c r="Z16" s="254"/>
-      <c r="AA16" s="254"/>
-      <c r="AB16" s="254"/>
-      <c r="AC16" s="254"/>
-      <c r="AD16" s="254"/>
-      <c r="AE16" s="254"/>
-      <c r="AF16" s="254"/>
-      <c r="AG16" s="254"/>
-      <c r="AH16" s="254"/>
-      <c r="AI16" s="254"/>
-      <c r="AJ16" s="254"/>
-      <c r="AK16" s="255"/>
-      <c r="AL16" s="148"/>
+      <c r="Y16" s="163"/>
+      <c r="Z16" s="163"/>
+      <c r="AA16" s="163"/>
+      <c r="AB16" s="163"/>
+      <c r="AC16" s="163"/>
+      <c r="AD16" s="163"/>
+      <c r="AE16" s="163"/>
+      <c r="AF16" s="163"/>
+      <c r="AG16" s="163"/>
+      <c r="AH16" s="163"/>
+      <c r="AI16" s="163"/>
+      <c r="AJ16" s="163"/>
+      <c r="AK16" s="164"/>
+      <c r="AL16" s="116"/>
       <c r="AM16" s="59"/>
       <c r="AN16" s="59"/>
       <c r="AO16" s="59"/>
@@ -5162,34 +5154,34 @@
       <c r="BF16" s="61"/>
       <c r="BG16" s="61"/>
       <c r="BH16" s="61"/>
-      <c r="BI16" s="114"/>
-      <c r="BJ16" s="114"/>
-      <c r="BK16" s="237"/>
-      <c r="BL16" s="237"/>
-      <c r="BM16" s="237"/>
-      <c r="BN16" s="237"/>
-      <c r="BO16" s="237"/>
-      <c r="BP16" s="237"/>
-      <c r="BQ16" s="237"/>
-      <c r="BR16" s="237"/>
-      <c r="BS16" s="237"/>
-      <c r="BT16" s="237"/>
-      <c r="BU16" s="237"/>
-      <c r="BV16" s="238"/>
+      <c r="BI16" s="170"/>
+      <c r="BJ16" s="170"/>
+      <c r="BK16" s="143"/>
+      <c r="BL16" s="143"/>
+      <c r="BM16" s="143"/>
+      <c r="BN16" s="143"/>
+      <c r="BO16" s="143"/>
+      <c r="BP16" s="143"/>
+      <c r="BQ16" s="143"/>
+      <c r="BR16" s="143"/>
+      <c r="BS16" s="143"/>
+      <c r="BT16" s="143"/>
+      <c r="BU16" s="143"/>
+      <c r="BV16" s="144"/>
       <c r="BW16" s="50"/>
       <c r="BX16" s="17"/>
     </row>
     <row r="17" spans="1:76" ht="21" customHeight="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="121"/>
+      <c r="B17" s="210"/>
       <c r="C17" s="28"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="227" t="s">
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="251"/>
+      <c r="H17" s="216"/>
       <c r="I17" s="107"/>
       <c r="J17" s="108"/>
       <c r="K17" s="108"/>
@@ -5215,13 +5207,13 @@
       <c r="AE17" s="59"/>
       <c r="AF17" s="59"/>
       <c r="AG17" s="59"/>
-      <c r="AH17" s="248" t="s">
+      <c r="AH17" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="AI17" s="249"/>
-      <c r="AJ17" s="249"/>
-      <c r="AK17" s="250"/>
-      <c r="AL17" s="148"/>
+      <c r="AI17" s="191"/>
+      <c r="AJ17" s="191"/>
+      <c r="AK17" s="192"/>
+      <c r="AL17" s="116"/>
       <c r="AM17" s="59"/>
       <c r="AN17" s="59"/>
       <c r="AO17" s="59"/>
@@ -5244,78 +5236,78 @@
       <c r="BF17" s="61"/>
       <c r="BG17" s="61"/>
       <c r="BH17" s="61"/>
-      <c r="BI17" s="114"/>
-      <c r="BJ17" s="114"/>
-      <c r="BK17" s="237"/>
-      <c r="BL17" s="237"/>
-      <c r="BM17" s="237"/>
-      <c r="BN17" s="237"/>
-      <c r="BO17" s="237"/>
-      <c r="BP17" s="237"/>
-      <c r="BQ17" s="237"/>
-      <c r="BR17" s="237"/>
-      <c r="BS17" s="237"/>
-      <c r="BT17" s="237"/>
-      <c r="BU17" s="237"/>
-      <c r="BV17" s="238"/>
+      <c r="BI17" s="170"/>
+      <c r="BJ17" s="170"/>
+      <c r="BK17" s="143"/>
+      <c r="BL17" s="143"/>
+      <c r="BM17" s="143"/>
+      <c r="BN17" s="143"/>
+      <c r="BO17" s="143"/>
+      <c r="BP17" s="143"/>
+      <c r="BQ17" s="143"/>
+      <c r="BR17" s="143"/>
+      <c r="BS17" s="143"/>
+      <c r="BT17" s="143"/>
+      <c r="BU17" s="143"/>
+      <c r="BV17" s="144"/>
       <c r="BW17" s="50"/>
       <c r="BX17" s="17"/>
     </row>
     <row r="18" spans="1:76" ht="21" customHeight="1" thickBot="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="121"/>
+      <c r="B18" s="210"/>
       <c r="C18" s="62"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="142" t="s">
+      <c r="D18" s="213"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="203" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="253"/>
-      <c r="I18" s="228"/>
-      <c r="J18" s="228"/>
-      <c r="K18" s="228"/>
-      <c r="L18" s="228"/>
-      <c r="M18" s="228"/>
-      <c r="N18" s="228"/>
-      <c r="O18" s="228"/>
-      <c r="P18" s="229"/>
-      <c r="Q18" s="230"/>
-      <c r="R18" s="230"/>
-      <c r="S18" s="230"/>
-      <c r="T18" s="230"/>
-      <c r="U18" s="230"/>
-      <c r="V18" s="230"/>
-      <c r="W18" s="230"/>
-      <c r="X18" s="230"/>
-      <c r="Y18" s="230"/>
-      <c r="Z18" s="230"/>
-      <c r="AA18" s="230"/>
-      <c r="AB18" s="230"/>
-      <c r="AC18" s="230"/>
-      <c r="AD18" s="231"/>
-      <c r="AE18" s="230"/>
-      <c r="AF18" s="230"/>
-      <c r="AG18" s="256" t="s">
+      <c r="H18" s="204"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="139"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="140"/>
+      <c r="AE18" s="139"/>
+      <c r="AF18" s="139"/>
+      <c r="AG18" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="AH18" s="257"/>
-      <c r="AI18" s="257"/>
-      <c r="AJ18" s="257"/>
-      <c r="AK18" s="257"/>
-      <c r="AL18" s="257"/>
-      <c r="AM18" s="257"/>
-      <c r="AN18" s="257"/>
-      <c r="AO18" s="257"/>
-      <c r="AP18" s="257"/>
-      <c r="AQ18" s="257"/>
-      <c r="AR18" s="257"/>
-      <c r="AS18" s="257"/>
-      <c r="AT18" s="257"/>
-      <c r="AU18" s="257"/>
-      <c r="AV18" s="257"/>
-      <c r="AW18" s="257"/>
-      <c r="AX18" s="258"/>
+      <c r="AH18" s="160"/>
+      <c r="AI18" s="160"/>
+      <c r="AJ18" s="160"/>
+      <c r="AK18" s="160"/>
+      <c r="AL18" s="160"/>
+      <c r="AM18" s="160"/>
+      <c r="AN18" s="160"/>
+      <c r="AO18" s="160"/>
+      <c r="AP18" s="160"/>
+      <c r="AQ18" s="160"/>
+      <c r="AR18" s="160"/>
+      <c r="AS18" s="160"/>
+      <c r="AT18" s="160"/>
+      <c r="AU18" s="160"/>
+      <c r="AV18" s="160"/>
+      <c r="AW18" s="160"/>
+      <c r="AX18" s="161"/>
       <c r="AY18" s="63"/>
       <c r="AZ18" s="63"/>
       <c r="BA18" s="63"/>
@@ -5326,8 +5318,8 @@
       <c r="BF18" s="63"/>
       <c r="BG18" s="63"/>
       <c r="BH18" s="63"/>
-      <c r="BI18" s="114"/>
-      <c r="BJ18" s="114"/>
+      <c r="BI18" s="170"/>
+      <c r="BJ18" s="170"/>
       <c r="BK18" s="64"/>
       <c r="BL18" s="64"/>
       <c r="BM18" s="64"/>
@@ -5345,40 +5337,40 @@
     </row>
     <row r="19" spans="1:76" ht="21" customHeight="1">
       <c r="A19" s="17"/>
-      <c r="B19" s="120">
+      <c r="B19" s="248">
         <v>3</v>
       </c>
       <c r="C19" s="28"/>
-      <c r="D19" s="158" t="s">
+      <c r="D19" s="249" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="252" t="s">
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="251" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="251"/>
+      <c r="H19" s="216"/>
       <c r="I19" s="66"/>
       <c r="J19" s="109"/>
       <c r="K19" s="109"/>
       <c r="L19" s="109"/>
       <c r="M19" s="109"/>
-      <c r="N19" s="224" t="s">
+      <c r="N19" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="225"/>
-      <c r="P19" s="225"/>
-      <c r="Q19" s="225"/>
-      <c r="R19" s="225"/>
-      <c r="S19" s="225"/>
-      <c r="T19" s="225"/>
-      <c r="U19" s="225"/>
-      <c r="V19" s="225"/>
-      <c r="W19" s="225"/>
-      <c r="X19" s="225"/>
-      <c r="Y19" s="225"/>
-      <c r="Z19" s="225"/>
-      <c r="AA19" s="226"/>
+      <c r="O19" s="201"/>
+      <c r="P19" s="201"/>
+      <c r="Q19" s="201"/>
+      <c r="R19" s="201"/>
+      <c r="S19" s="201"/>
+      <c r="T19" s="201"/>
+      <c r="U19" s="201"/>
+      <c r="V19" s="201"/>
+      <c r="W19" s="201"/>
+      <c r="X19" s="201"/>
+      <c r="Y19" s="201"/>
+      <c r="Z19" s="201"/>
+      <c r="AA19" s="202"/>
       <c r="AB19" s="68"/>
       <c r="AC19" s="68"/>
       <c r="AD19" s="69"/>
@@ -5412,8 +5404,8 @@
       <c r="BF19" s="70"/>
       <c r="BG19" s="70"/>
       <c r="BH19" s="70"/>
-      <c r="BI19" s="114"/>
-      <c r="BJ19" s="114"/>
+      <c r="BI19" s="170"/>
+      <c r="BJ19" s="170"/>
       <c r="BK19" s="71"/>
       <c r="BL19" s="71"/>
       <c r="BM19" s="71"/>
@@ -5431,15 +5423,15 @@
     </row>
     <row r="20" spans="1:76" ht="21" customHeight="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="120"/>
+      <c r="B20" s="248"/>
       <c r="C20" s="28"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="233" t="s">
+      <c r="D20" s="249"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="234"/>
+      <c r="H20" s="155"/>
       <c r="I20" s="66"/>
       <c r="J20" s="109"/>
       <c r="K20" s="109"/>
@@ -5461,29 +5453,29 @@
       <c r="AA20" s="75"/>
       <c r="AB20" s="110"/>
       <c r="AC20" s="110"/>
-      <c r="AD20" s="235"/>
+      <c r="AD20" s="142"/>
       <c r="AE20" s="73"/>
       <c r="AF20" s="74"/>
-      <c r="AG20" s="236" t="s">
+      <c r="AG20" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="AH20" s="181"/>
-      <c r="AI20" s="181"/>
-      <c r="AJ20" s="181"/>
-      <c r="AK20" s="181"/>
-      <c r="AL20" s="181"/>
-      <c r="AM20" s="181"/>
-      <c r="AN20" s="181"/>
-      <c r="AO20" s="181"/>
-      <c r="AP20" s="181"/>
-      <c r="AQ20" s="181"/>
-      <c r="AR20" s="181"/>
-      <c r="AS20" s="181"/>
-      <c r="AT20" s="181"/>
-      <c r="AU20" s="181"/>
-      <c r="AV20" s="181"/>
-      <c r="AW20" s="181"/>
-      <c r="AX20" s="182"/>
+      <c r="AH20" s="157"/>
+      <c r="AI20" s="157"/>
+      <c r="AJ20" s="157"/>
+      <c r="AK20" s="157"/>
+      <c r="AL20" s="157"/>
+      <c r="AM20" s="157"/>
+      <c r="AN20" s="157"/>
+      <c r="AO20" s="157"/>
+      <c r="AP20" s="157"/>
+      <c r="AQ20" s="157"/>
+      <c r="AR20" s="157"/>
+      <c r="AS20" s="157"/>
+      <c r="AT20" s="157"/>
+      <c r="AU20" s="157"/>
+      <c r="AV20" s="157"/>
+      <c r="AW20" s="157"/>
+      <c r="AX20" s="158"/>
       <c r="AY20" s="74"/>
       <c r="AZ20" s="75"/>
       <c r="BA20" s="110"/>
@@ -5493,9 +5485,9 @@
       <c r="BE20" s="74"/>
       <c r="BF20" s="75"/>
       <c r="BG20" s="75"/>
-      <c r="BH20" s="232"/>
-      <c r="BI20" s="114"/>
-      <c r="BJ20" s="114"/>
+      <c r="BH20" s="141"/>
+      <c r="BI20" s="170"/>
+      <c r="BJ20" s="170"/>
       <c r="BK20" s="71"/>
       <c r="BL20" s="71"/>
       <c r="BM20" s="71"/>
@@ -5513,15 +5505,15 @@
     </row>
     <row r="21" spans="1:76" ht="21" customHeight="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="121"/>
+      <c r="B21" s="210"/>
       <c r="C21" s="28"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="122" t="s">
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="123"/>
+      <c r="H21" s="215"/>
       <c r="I21" s="73"/>
       <c r="J21" s="110"/>
       <c r="K21" s="110"/>
@@ -5535,49 +5527,49 @@
       <c r="S21" s="75"/>
       <c r="T21" s="75"/>
       <c r="U21" s="75"/>
-      <c r="V21" s="180" t="s">
+      <c r="V21" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="W21" s="217"/>
-      <c r="X21" s="217"/>
-      <c r="Y21" s="217"/>
-      <c r="Z21" s="217"/>
-      <c r="AA21" s="217"/>
-      <c r="AB21" s="217"/>
-      <c r="AC21" s="217"/>
-      <c r="AD21" s="217"/>
-      <c r="AE21" s="217"/>
-      <c r="AF21" s="217"/>
-      <c r="AG21" s="217"/>
-      <c r="AH21" s="217"/>
-      <c r="AI21" s="217"/>
-      <c r="AJ21" s="217"/>
-      <c r="AK21" s="217"/>
-      <c r="AL21" s="217"/>
-      <c r="AM21" s="217"/>
-      <c r="AN21" s="217"/>
-      <c r="AO21" s="217"/>
-      <c r="AP21" s="217"/>
-      <c r="AQ21" s="217"/>
-      <c r="AR21" s="217"/>
-      <c r="AS21" s="217"/>
-      <c r="AT21" s="217"/>
-      <c r="AU21" s="217"/>
-      <c r="AV21" s="217"/>
-      <c r="AW21" s="217"/>
-      <c r="AX21" s="217"/>
-      <c r="AY21" s="217"/>
-      <c r="AZ21" s="217"/>
-      <c r="BA21" s="217"/>
-      <c r="BB21" s="217"/>
-      <c r="BC21" s="217"/>
-      <c r="BD21" s="217"/>
-      <c r="BE21" s="217"/>
-      <c r="BF21" s="217"/>
-      <c r="BG21" s="217"/>
-      <c r="BH21" s="218"/>
-      <c r="BI21" s="114"/>
-      <c r="BJ21" s="114"/>
+      <c r="W21" s="182"/>
+      <c r="X21" s="182"/>
+      <c r="Y21" s="182"/>
+      <c r="Z21" s="182"/>
+      <c r="AA21" s="182"/>
+      <c r="AB21" s="182"/>
+      <c r="AC21" s="182"/>
+      <c r="AD21" s="182"/>
+      <c r="AE21" s="182"/>
+      <c r="AF21" s="182"/>
+      <c r="AG21" s="182"/>
+      <c r="AH21" s="182"/>
+      <c r="AI21" s="182"/>
+      <c r="AJ21" s="182"/>
+      <c r="AK21" s="182"/>
+      <c r="AL21" s="182"/>
+      <c r="AM21" s="182"/>
+      <c r="AN21" s="182"/>
+      <c r="AO21" s="182"/>
+      <c r="AP21" s="182"/>
+      <c r="AQ21" s="182"/>
+      <c r="AR21" s="182"/>
+      <c r="AS21" s="182"/>
+      <c r="AT21" s="182"/>
+      <c r="AU21" s="182"/>
+      <c r="AV21" s="182"/>
+      <c r="AW21" s="182"/>
+      <c r="AX21" s="182"/>
+      <c r="AY21" s="182"/>
+      <c r="AZ21" s="182"/>
+      <c r="BA21" s="182"/>
+      <c r="BB21" s="182"/>
+      <c r="BC21" s="182"/>
+      <c r="BD21" s="182"/>
+      <c r="BE21" s="182"/>
+      <c r="BF21" s="182"/>
+      <c r="BG21" s="182"/>
+      <c r="BH21" s="183"/>
+      <c r="BI21" s="170"/>
+      <c r="BJ21" s="170"/>
       <c r="BK21" s="78"/>
       <c r="BL21" s="78"/>
       <c r="BM21" s="78"/>
@@ -5595,15 +5587,15 @@
     </row>
     <row r="22" spans="1:76" ht="21" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="121"/>
+      <c r="B22" s="210"/>
       <c r="C22" s="28"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="122" t="s">
+      <c r="D22" s="212"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="212"/>
+      <c r="G22" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="123"/>
+      <c r="H22" s="215"/>
       <c r="I22" s="73"/>
       <c r="J22" s="110"/>
       <c r="K22" s="110"/>
@@ -5646,20 +5638,20 @@
       <c r="AV22" s="77"/>
       <c r="AW22" s="77"/>
       <c r="AX22" s="77"/>
-      <c r="AY22" s="183" t="s">
+      <c r="AY22" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="AZ22" s="215"/>
-      <c r="BA22" s="215"/>
-      <c r="BB22" s="215"/>
-      <c r="BC22" s="215"/>
-      <c r="BD22" s="215"/>
-      <c r="BE22" s="215"/>
-      <c r="BF22" s="215"/>
-      <c r="BG22" s="215"/>
-      <c r="BH22" s="216"/>
-      <c r="BI22" s="114"/>
-      <c r="BJ22" s="114"/>
+      <c r="AZ22" s="179"/>
+      <c r="BA22" s="179"/>
+      <c r="BB22" s="179"/>
+      <c r="BC22" s="179"/>
+      <c r="BD22" s="179"/>
+      <c r="BE22" s="179"/>
+      <c r="BF22" s="179"/>
+      <c r="BG22" s="179"/>
+      <c r="BH22" s="180"/>
+      <c r="BI22" s="170"/>
+      <c r="BJ22" s="170"/>
       <c r="BK22" s="78"/>
       <c r="BL22" s="78"/>
       <c r="BM22" s="78"/>
@@ -5677,15 +5669,15 @@
     </row>
     <row r="23" spans="1:76" ht="21" customHeight="1" thickBot="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="121"/>
+      <c r="B23" s="210"/>
       <c r="C23" s="80"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="134" t="s">
+      <c r="D23" s="250"/>
+      <c r="E23" s="250"/>
+      <c r="F23" s="250"/>
+      <c r="G23" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="135"/>
+      <c r="H23" s="253"/>
       <c r="I23" s="81"/>
       <c r="J23" s="111"/>
       <c r="K23" s="111"/>
@@ -5728,20 +5720,20 @@
       <c r="AV23" s="85"/>
       <c r="AW23" s="85"/>
       <c r="AX23" s="85"/>
-      <c r="AY23" s="184" t="s">
+      <c r="AY23" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="AZ23" s="213"/>
-      <c r="BA23" s="213"/>
-      <c r="BB23" s="213"/>
-      <c r="BC23" s="213"/>
-      <c r="BD23" s="213"/>
-      <c r="BE23" s="213"/>
-      <c r="BF23" s="213"/>
-      <c r="BG23" s="213"/>
-      <c r="BH23" s="214"/>
-      <c r="BI23" s="114"/>
-      <c r="BJ23" s="114"/>
+      <c r="AZ23" s="176"/>
+      <c r="BA23" s="176"/>
+      <c r="BB23" s="176"/>
+      <c r="BC23" s="176"/>
+      <c r="BD23" s="176"/>
+      <c r="BE23" s="176"/>
+      <c r="BF23" s="176"/>
+      <c r="BG23" s="176"/>
+      <c r="BH23" s="177"/>
+      <c r="BI23" s="170"/>
+      <c r="BJ23" s="170"/>
       <c r="BK23" s="86"/>
       <c r="BL23" s="86"/>
       <c r="BM23" s="86"/>
@@ -5759,19 +5751,19 @@
     </row>
     <row r="24" spans="1:76" ht="21" customHeight="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="136">
+      <c r="B24" s="222">
         <v>4</v>
       </c>
       <c r="C24" s="28"/>
-      <c r="D24" s="160" t="s">
+      <c r="D24" s="254" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="185" t="s">
+      <c r="E24" s="212"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="186"/>
+      <c r="H24" s="257"/>
       <c r="I24" s="66"/>
       <c r="J24" s="109"/>
       <c r="K24" s="109"/>
@@ -5826,8 +5818,8 @@
       <c r="BF24" s="70"/>
       <c r="BG24" s="70"/>
       <c r="BH24" s="70"/>
-      <c r="BI24" s="114"/>
-      <c r="BJ24" s="114"/>
+      <c r="BI24" s="170"/>
+      <c r="BJ24" s="170"/>
       <c r="BK24" s="71"/>
       <c r="BL24" s="71"/>
       <c r="BM24" s="71"/>
@@ -5845,15 +5837,15 @@
     </row>
     <row r="25" spans="1:76" ht="21" customHeight="1" thickBot="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="136"/>
+      <c r="B25" s="222"/>
       <c r="C25" s="88"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="137" t="s">
+      <c r="D25" s="255"/>
+      <c r="E25" s="255"/>
+      <c r="F25" s="255"/>
+      <c r="G25" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="138"/>
+      <c r="H25" s="224"/>
       <c r="I25" s="89"/>
       <c r="J25" s="112"/>
       <c r="K25" s="112"/>
@@ -5901,15 +5893,15 @@
       <c r="BA25" s="93"/>
       <c r="BB25" s="93"/>
       <c r="BC25" s="93"/>
-      <c r="BD25" s="190" t="s">
+      <c r="BD25" s="184" t="s">
         <v>42</v>
       </c>
-      <c r="BE25" s="219"/>
-      <c r="BF25" s="219"/>
-      <c r="BG25" s="219"/>
-      <c r="BH25" s="220"/>
-      <c r="BI25" s="114"/>
-      <c r="BJ25" s="114"/>
+      <c r="BE25" s="185"/>
+      <c r="BF25" s="185"/>
+      <c r="BG25" s="185"/>
+      <c r="BH25" s="186"/>
+      <c r="BI25" s="170"/>
+      <c r="BJ25" s="170"/>
       <c r="BK25" s="94"/>
       <c r="BL25" s="94"/>
       <c r="BM25" s="94"/>
@@ -5930,82 +5922,82 @@
       <c r="B26" s="103">
         <v>5</v>
       </c>
-      <c r="C26" s="204"/>
-      <c r="D26" s="191" t="s">
+      <c r="C26" s="129"/>
+      <c r="D26" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="193" t="s">
+      <c r="E26" s="228"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="225" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="194"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="196"/>
-      <c r="K26" s="196"/>
-      <c r="L26" s="196"/>
-      <c r="M26" s="196"/>
-      <c r="N26" s="196"/>
-      <c r="O26" s="196"/>
-      <c r="P26" s="197"/>
-      <c r="Q26" s="198"/>
-      <c r="R26" s="198"/>
-      <c r="S26" s="198"/>
-      <c r="T26" s="198"/>
-      <c r="U26" s="198"/>
-      <c r="V26" s="198"/>
-      <c r="W26" s="198"/>
-      <c r="X26" s="198"/>
-      <c r="Y26" s="198"/>
-      <c r="Z26" s="198"/>
-      <c r="AA26" s="198"/>
-      <c r="AB26" s="198"/>
-      <c r="AC26" s="198"/>
-      <c r="AD26" s="199"/>
-      <c r="AE26" s="198"/>
-      <c r="AF26" s="198"/>
-      <c r="AG26" s="198"/>
-      <c r="AH26" s="198"/>
-      <c r="AI26" s="198"/>
-      <c r="AJ26" s="198"/>
-      <c r="AK26" s="198"/>
-      <c r="AL26" s="198"/>
-      <c r="AM26" s="198"/>
-      <c r="AN26" s="198"/>
-      <c r="AO26" s="198"/>
-      <c r="AP26" s="198"/>
-      <c r="AQ26" s="198"/>
-      <c r="AR26" s="198"/>
-      <c r="AS26" s="198"/>
-      <c r="AT26" s="198"/>
-      <c r="AU26" s="198"/>
-      <c r="AV26" s="200"/>
-      <c r="AW26" s="200"/>
-      <c r="AX26" s="200"/>
-      <c r="AY26" s="200"/>
-      <c r="AZ26" s="200"/>
-      <c r="BA26" s="200"/>
-      <c r="BB26" s="200"/>
-      <c r="BC26" s="200"/>
-      <c r="BD26" s="200"/>
-      <c r="BE26" s="200"/>
-      <c r="BF26" s="200"/>
-      <c r="BG26" s="205"/>
-      <c r="BH26" s="206"/>
-      <c r="BI26" s="201"/>
-      <c r="BJ26" s="201"/>
-      <c r="BK26" s="202"/>
-      <c r="BL26" s="202"/>
-      <c r="BM26" s="202"/>
-      <c r="BN26" s="202"/>
-      <c r="BO26" s="202"/>
-      <c r="BP26" s="202"/>
-      <c r="BQ26" s="202"/>
-      <c r="BR26" s="202"/>
-      <c r="BS26" s="202"/>
-      <c r="BT26" s="202"/>
-      <c r="BU26" s="202"/>
-      <c r="BV26" s="203"/>
+      <c r="H26" s="226"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="124"/>
+      <c r="R26" s="124"/>
+      <c r="S26" s="124"/>
+      <c r="T26" s="124"/>
+      <c r="U26" s="124"/>
+      <c r="V26" s="124"/>
+      <c r="W26" s="124"/>
+      <c r="X26" s="124"/>
+      <c r="Y26" s="124"/>
+      <c r="Z26" s="124"/>
+      <c r="AA26" s="124"/>
+      <c r="AB26" s="124"/>
+      <c r="AC26" s="124"/>
+      <c r="AD26" s="125"/>
+      <c r="AE26" s="124"/>
+      <c r="AF26" s="124"/>
+      <c r="AG26" s="124"/>
+      <c r="AH26" s="124"/>
+      <c r="AI26" s="124"/>
+      <c r="AJ26" s="124"/>
+      <c r="AK26" s="124"/>
+      <c r="AL26" s="124"/>
+      <c r="AM26" s="124"/>
+      <c r="AN26" s="124"/>
+      <c r="AO26" s="124"/>
+      <c r="AP26" s="124"/>
+      <c r="AQ26" s="124"/>
+      <c r="AR26" s="124"/>
+      <c r="AS26" s="124"/>
+      <c r="AT26" s="124"/>
+      <c r="AU26" s="124"/>
+      <c r="AV26" s="126"/>
+      <c r="AW26" s="126"/>
+      <c r="AX26" s="126"/>
+      <c r="AY26" s="126"/>
+      <c r="AZ26" s="126"/>
+      <c r="BA26" s="126"/>
+      <c r="BB26" s="126"/>
+      <c r="BC26" s="126"/>
+      <c r="BD26" s="126"/>
+      <c r="BE26" s="126"/>
+      <c r="BF26" s="126"/>
+      <c r="BG26" s="167"/>
+      <c r="BH26" s="168"/>
+      <c r="BI26" s="171"/>
+      <c r="BJ26" s="171"/>
+      <c r="BK26" s="127"/>
+      <c r="BL26" s="127"/>
+      <c r="BM26" s="127"/>
+      <c r="BN26" s="127"/>
+      <c r="BO26" s="127"/>
+      <c r="BP26" s="127"/>
+      <c r="BQ26" s="127"/>
+      <c r="BR26" s="127"/>
+      <c r="BS26" s="127"/>
+      <c r="BT26" s="127"/>
+      <c r="BU26" s="127"/>
+      <c r="BV26" s="128"/>
       <c r="BW26" s="17"/>
       <c r="BX26" s="17"/>
     </row>
@@ -6479,11 +6471,45 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="AG20:AX20"/>
-    <mergeCell ref="AG18:AX18"/>
-    <mergeCell ref="X16:AK16"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="U2:AL2"/>
+    <mergeCell ref="I4:U4"/>
+    <mergeCell ref="V4:AH4"/>
+    <mergeCell ref="I8:AD8"/>
+    <mergeCell ref="I5:U5"/>
+    <mergeCell ref="V5:AG5"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="D10:F13"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="D19:F23"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="D14:F18"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="M13:AX13"/>
+    <mergeCell ref="N19:AA19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="BG26:BH26"/>
     <mergeCell ref="BJ10:BJ26"/>
     <mergeCell ref="BJ8:BV8"/>
@@ -6496,46 +6522,12 @@
     <mergeCell ref="AH17:AK17"/>
     <mergeCell ref="AE15:AI15"/>
     <mergeCell ref="Y14:AF14"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="M13:AX13"/>
-    <mergeCell ref="N19:AA19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="D14:F18"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="D10:F13"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="U2:AL2"/>
-    <mergeCell ref="I4:U4"/>
-    <mergeCell ref="V4:AH4"/>
-    <mergeCell ref="I8:AD8"/>
-    <mergeCell ref="I5:U5"/>
-    <mergeCell ref="V5:AG5"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="I10:L10"/>
     <mergeCell ref="BI10:BI26"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="D19:F23"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="AG20:AX20"/>
+    <mergeCell ref="AG18:AX18"/>
+    <mergeCell ref="X16:AK16"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
